--- a/src/main/resources/Book.xlsx
+++ b/src/main/resources/Book.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cevik\IdeaProjects\AutomationExerciseCucumberProject\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{010F78FE-AC0E-4A0E-ADBD-51EF59034FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF7A26EF-9D3A-46B5-8871-533120D43534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,9 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="2">
   <si>
-    <t>Bugun hava cok guzel</t>
+    <t>Hayat dedigin bir cift bacak ve gidebildigi yol kadar</t>
+  </si>
+  <si>
+    <t>Java excel</t>
   </si>
 </sst>
 </file>
@@ -349,17 +352,18 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="20.0"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="46.85546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
